--- a/public/docs/siswa.xlsx
+++ b/public/docs/siswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\sisfomts\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1355222-D151-4ECC-A038-CD29F7AE11BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096534AA-5459-453C-9540-56A6D4C610BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{DB196B03-F87D-493E-B556-6BA6FD9BDB38}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5783" uniqueCount="4150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5786" uniqueCount="4155">
   <si>
     <t>email</t>
   </si>
@@ -10993,9 +10993,6 @@
     <t>121161020001220172</t>
   </si>
   <si>
-    <t>3101597529Tinnezia Inez Cendani</t>
-  </si>
-  <si>
     <t>222698</t>
   </si>
   <si>
@@ -12503,13 +12500,31 @@
   </si>
   <si>
     <t>siswa222704@mts.com</t>
+  </si>
+  <si>
+    <t>Tinnezia Inez Cendani</t>
+  </si>
+  <si>
+    <t>3101597529</t>
+  </si>
+  <si>
+    <t>243105</t>
+  </si>
+  <si>
+    <t>siswa243105@mts.com</t>
+  </si>
+  <si>
+    <t>siswa222705@mts.com</t>
+  </si>
+  <si>
+    <t>siswa222706@mts.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12519,6 +12534,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -12575,10 +12598,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -12588,8 +12612,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12904,13 +12931,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E0DC98-A10D-4FA1-B13D-780BABC913DC}">
   <dimension ref="A1:N577"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A563" workbookViewId="0">
+      <selection activeCell="E572" sqref="E572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="14" width="9.46484375" customWidth="1"/>
+    <col min="1" max="2" width="9.46484375" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="9.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
@@ -21858,8 +21888,8 @@
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A214" s="1">
-        <v>243104</v>
+      <c r="A214" s="1" t="s">
+        <v>4151</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>649</v>
@@ -21870,8 +21900,8 @@
       <c r="D214" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="E214" s="3" t="s">
-        <v>1508</v>
+      <c r="E214" s="9" t="s">
+        <v>4152</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>1509</v>
@@ -28744,7 +28774,7 @@
         <v>2998</v>
       </c>
       <c r="E405" t="s">
-        <v>3979</v>
+        <v>3978</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>1699</v>
@@ -28753,13 +28783,13 @@
         <v>693</v>
       </c>
       <c r="K405" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="L405" t="s">
         <v>656</v>
       </c>
       <c r="M405" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="N405">
         <v>9</v>
@@ -28779,7 +28809,7 @@
         <v>3002</v>
       </c>
       <c r="E406" t="s">
-        <v>3980</v>
+        <v>3979</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>1699</v>
@@ -28788,13 +28818,13 @@
         <v>694</v>
       </c>
       <c r="K406" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="L406" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="M406" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="N406">
         <v>9</v>
@@ -28814,7 +28844,7 @@
         <v>3006</v>
       </c>
       <c r="E407" t="s">
-        <v>3981</v>
+        <v>3980</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>1699</v>
@@ -28823,13 +28853,13 @@
         <v>693</v>
       </c>
       <c r="K407" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="L407" t="s">
         <v>652</v>
       </c>
       <c r="M407" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="N407">
         <v>9</v>
@@ -28849,7 +28879,7 @@
         <v>3010</v>
       </c>
       <c r="E408" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>1699</v>
@@ -28858,13 +28888,13 @@
         <v>694</v>
       </c>
       <c r="K408" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="L408" t="s">
         <v>652</v>
       </c>
       <c r="M408" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="N408">
         <v>9</v>
@@ -28884,7 +28914,7 @@
         <v>3014</v>
       </c>
       <c r="E409" t="s">
-        <v>3983</v>
+        <v>3982</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>1699</v>
@@ -28893,13 +28923,13 @@
         <v>693</v>
       </c>
       <c r="K409" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="L409" t="s">
         <v>652</v>
       </c>
       <c r="M409" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="N409">
         <v>9</v>
@@ -28919,7 +28949,7 @@
         <v>3018</v>
       </c>
       <c r="E410" t="s">
-        <v>3984</v>
+        <v>3983</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>1699</v>
@@ -28928,13 +28958,13 @@
         <v>693</v>
       </c>
       <c r="K410" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="L410" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="M410" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="N410">
         <v>9</v>
@@ -28954,7 +28984,7 @@
         <v>3022</v>
       </c>
       <c r="E411" t="s">
-        <v>3985</v>
+        <v>3984</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>1699</v>
@@ -28963,13 +28993,13 @@
         <v>694</v>
       </c>
       <c r="K411" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="L411" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="M411" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="N411">
         <v>9</v>
@@ -28989,7 +29019,7 @@
         <v>3026</v>
       </c>
       <c r="E412" t="s">
-        <v>3986</v>
+        <v>3985</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>1699</v>
@@ -28998,13 +29028,13 @@
         <v>694</v>
       </c>
       <c r="K412" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="L412" t="s">
         <v>652</v>
       </c>
       <c r="M412" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="N412">
         <v>9</v>
@@ -29024,7 +29054,7 @@
         <v>3030</v>
       </c>
       <c r="E413" t="s">
-        <v>3987</v>
+        <v>3986</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>1699</v>
@@ -29033,13 +29063,13 @@
         <v>694</v>
       </c>
       <c r="K413" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="L413" t="s">
         <v>652</v>
       </c>
       <c r="M413" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="N413">
         <v>9</v>
@@ -29059,7 +29089,7 @@
         <v>3034</v>
       </c>
       <c r="E414" t="s">
-        <v>3988</v>
+        <v>3987</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>1699</v>
@@ -29068,13 +29098,13 @@
         <v>694</v>
       </c>
       <c r="K414" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="L414" t="s">
         <v>652</v>
       </c>
       <c r="M414" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="N414">
         <v>9</v>
@@ -29094,7 +29124,7 @@
         <v>3038</v>
       </c>
       <c r="E415" t="s">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>1699</v>
@@ -29103,13 +29133,13 @@
         <v>694</v>
       </c>
       <c r="K415" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="L415" t="s">
         <v>674</v>
       </c>
       <c r="M415" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="N415">
         <v>9</v>
@@ -29129,7 +29159,7 @@
         <v>3042</v>
       </c>
       <c r="E416" t="s">
-        <v>3990</v>
+        <v>3989</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>1699</v>
@@ -29138,13 +29168,13 @@
         <v>694</v>
       </c>
       <c r="K416" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="L416" t="s">
         <v>652</v>
       </c>
       <c r="M416" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="N416">
         <v>9</v>
@@ -29164,7 +29194,7 @@
         <v>3046</v>
       </c>
       <c r="E417" t="s">
-        <v>3991</v>
+        <v>3990</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>1699</v>
@@ -29173,13 +29203,13 @@
         <v>693</v>
       </c>
       <c r="K417" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="L417" t="s">
         <v>652</v>
       </c>
       <c r="M417" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="N417">
         <v>9</v>
@@ -29199,7 +29229,7 @@
         <v>3050</v>
       </c>
       <c r="E418" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>1699</v>
@@ -29208,13 +29238,13 @@
         <v>693</v>
       </c>
       <c r="K418" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="L418" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="M418" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="N418">
         <v>9</v>
@@ -29234,7 +29264,7 @@
         <v>3054</v>
       </c>
       <c r="E419" t="s">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>1699</v>
@@ -29243,13 +29273,13 @@
         <v>694</v>
       </c>
       <c r="K419" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="L419" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="M419" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="N419">
         <v>9</v>
@@ -29269,7 +29299,7 @@
         <v>3058</v>
       </c>
       <c r="E420" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>1699</v>
@@ -29278,13 +29308,13 @@
         <v>694</v>
       </c>
       <c r="K420" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="L420" t="s">
         <v>652</v>
       </c>
       <c r="M420" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="N420">
         <v>9</v>
@@ -29304,7 +29334,7 @@
         <v>3062</v>
       </c>
       <c r="E421" t="s">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>1699</v>
@@ -29313,13 +29343,13 @@
         <v>693</v>
       </c>
       <c r="K421" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="L421" t="s">
         <v>652</v>
       </c>
       <c r="M421" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="N421">
         <v>9</v>
@@ -29339,7 +29369,7 @@
         <v>3066</v>
       </c>
       <c r="E422" t="s">
-        <v>3996</v>
+        <v>3995</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>1699</v>
@@ -29348,13 +29378,13 @@
         <v>693</v>
       </c>
       <c r="K422" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="L422" t="s">
         <v>652</v>
       </c>
       <c r="M422" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="N422">
         <v>9</v>
@@ -29374,7 +29404,7 @@
         <v>3070</v>
       </c>
       <c r="E423" t="s">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>1699</v>
@@ -29383,13 +29413,13 @@
         <v>693</v>
       </c>
       <c r="K423" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="L423" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="M423" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="N423">
         <v>9</v>
@@ -29409,7 +29439,7 @@
         <v>3074</v>
       </c>
       <c r="E424" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>1699</v>
@@ -29418,13 +29448,13 @@
         <v>694</v>
       </c>
       <c r="K424" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="L424" t="s">
         <v>656</v>
       </c>
       <c r="M424" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="N424">
         <v>9</v>
@@ -29444,7 +29474,7 @@
         <v>3078</v>
       </c>
       <c r="E425" t="s">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>1699</v>
@@ -29453,13 +29483,13 @@
         <v>693</v>
       </c>
       <c r="K425" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="L425" t="s">
         <v>652</v>
       </c>
       <c r="M425" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="N425">
         <v>9</v>
@@ -29479,7 +29509,7 @@
         <v>3082</v>
       </c>
       <c r="E426" t="s">
-        <v>4000</v>
+        <v>3999</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>1699</v>
@@ -29488,13 +29518,13 @@
         <v>694</v>
       </c>
       <c r="K426" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="L426" t="s">
         <v>656</v>
       </c>
       <c r="M426" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="N426">
         <v>9</v>
@@ -29514,7 +29544,7 @@
         <v>3086</v>
       </c>
       <c r="E427" t="s">
-        <v>4001</v>
+        <v>4000</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>1699</v>
@@ -29523,13 +29553,13 @@
         <v>694</v>
       </c>
       <c r="K427" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="L427" t="s">
         <v>652</v>
       </c>
       <c r="M427" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="N427">
         <v>9</v>
@@ -29549,7 +29579,7 @@
         <v>3090</v>
       </c>
       <c r="E428" t="s">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>1699</v>
@@ -29558,13 +29588,13 @@
         <v>694</v>
       </c>
       <c r="K428" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="L428" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="M428" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="N428">
         <v>9</v>
@@ -29584,7 +29614,7 @@
         <v>3094</v>
       </c>
       <c r="E429" t="s">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>1699</v>
@@ -29593,13 +29623,13 @@
         <v>694</v>
       </c>
       <c r="K429" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="L429" t="s">
         <v>652</v>
       </c>
       <c r="M429" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="N429">
         <v>9</v>
@@ -29619,7 +29649,7 @@
         <v>3098</v>
       </c>
       <c r="E430" t="s">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>1699</v>
@@ -29628,13 +29658,13 @@
         <v>694</v>
       </c>
       <c r="K430" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="L430" t="s">
         <v>656</v>
       </c>
       <c r="M430" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="N430">
         <v>9</v>
@@ -29654,7 +29684,7 @@
         <v>3102</v>
       </c>
       <c r="E431" t="s">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>1699</v>
@@ -29663,7 +29693,7 @@
         <v>693</v>
       </c>
       <c r="K431" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="L431" t="s">
         <v>652</v>
@@ -29689,7 +29719,7 @@
         <v>3106</v>
       </c>
       <c r="E432" t="s">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>1699</v>
@@ -29698,13 +29728,13 @@
         <v>693</v>
       </c>
       <c r="K432" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="L432" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="M432" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="N432">
         <v>9</v>
@@ -29724,7 +29754,7 @@
         <v>3109</v>
       </c>
       <c r="E433" t="s">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>1699</v>
@@ -29733,13 +29763,13 @@
         <v>694</v>
       </c>
       <c r="K433" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="L433" t="s">
         <v>652</v>
       </c>
       <c r="M433" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="N433">
         <v>9</v>
@@ -29759,7 +29789,7 @@
         <v>3113</v>
       </c>
       <c r="E434" t="s">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>1699</v>
@@ -29768,13 +29798,13 @@
         <v>694</v>
       </c>
       <c r="K434" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="L434" t="s">
         <v>662</v>
       </c>
       <c r="M434" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="N434">
         <v>9</v>
@@ -29794,7 +29824,7 @@
         <v>3117</v>
       </c>
       <c r="E435" t="s">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>1699</v>
@@ -29803,13 +29833,13 @@
         <v>693</v>
       </c>
       <c r="K435" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="L435" t="s">
         <v>652</v>
       </c>
       <c r="M435" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="N435">
         <v>9</v>
@@ -29829,7 +29859,7 @@
         <v>3121</v>
       </c>
       <c r="E436" t="s">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>1699</v>
@@ -29838,13 +29868,13 @@
         <v>694</v>
       </c>
       <c r="K436" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="L436" t="s">
         <v>656</v>
       </c>
       <c r="M436" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="N436">
         <v>9</v>
@@ -29864,7 +29894,7 @@
         <v>3125</v>
       </c>
       <c r="E437" t="s">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>1699</v>
@@ -29873,13 +29903,13 @@
         <v>694</v>
       </c>
       <c r="K437" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="L437" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="M437" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="N437">
         <v>9</v>
@@ -29896,7 +29926,7 @@
         <v>3128</v>
       </c>
       <c r="E438" t="s">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>1699</v>
@@ -29905,13 +29935,13 @@
         <v>694</v>
       </c>
       <c r="K438" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="L438" t="s">
         <v>670</v>
       </c>
       <c r="M438" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="N438">
         <v>9</v>
@@ -29931,7 +29961,7 @@
         <v>3132</v>
       </c>
       <c r="E439" t="s">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>1699</v>
@@ -29940,13 +29970,13 @@
         <v>694</v>
       </c>
       <c r="K439" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="L439" t="s">
         <v>652</v>
       </c>
       <c r="M439" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="N439">
         <v>9</v>
@@ -29966,7 +29996,7 @@
         <v>3136</v>
       </c>
       <c r="E440" t="s">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>1699</v>
@@ -29975,13 +30005,13 @@
         <v>693</v>
       </c>
       <c r="K440" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="L440" t="s">
         <v>652</v>
       </c>
       <c r="M440" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="N440">
         <v>9</v>
@@ -30001,7 +30031,7 @@
         <v>3140</v>
       </c>
       <c r="E441" t="s">
-        <v>4015</v>
+        <v>4014</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>1699</v>
@@ -30010,13 +30040,13 @@
         <v>693</v>
       </c>
       <c r="K441" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="L441" t="s">
         <v>652</v>
       </c>
       <c r="M441" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="N441">
         <v>9</v>
@@ -30036,7 +30066,7 @@
         <v>3144</v>
       </c>
       <c r="E442" t="s">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>1699</v>
@@ -30045,13 +30075,13 @@
         <v>693</v>
       </c>
       <c r="K442" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="L442" t="s">
         <v>652</v>
       </c>
       <c r="M442" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="N442">
         <v>9</v>
@@ -30071,7 +30101,7 @@
         <v>3148</v>
       </c>
       <c r="E443" t="s">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>1699</v>
@@ -30080,13 +30110,13 @@
         <v>693</v>
       </c>
       <c r="K443" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="L443" t="s">
         <v>652</v>
       </c>
       <c r="M443" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="N443">
         <v>9</v>
@@ -30106,7 +30136,7 @@
         <v>3152</v>
       </c>
       <c r="E444" t="s">
-        <v>4018</v>
+        <v>4017</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>1699</v>
@@ -30115,13 +30145,13 @@
         <v>694</v>
       </c>
       <c r="K444" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="L444" t="s">
         <v>682</v>
       </c>
       <c r="M444" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="N444">
         <v>9</v>
@@ -30141,7 +30171,7 @@
         <v>3156</v>
       </c>
       <c r="E445" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>1699</v>
@@ -30150,13 +30180,13 @@
         <v>693</v>
       </c>
       <c r="K445" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="L445" t="s">
         <v>652</v>
       </c>
       <c r="M445" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="N445">
         <v>9</v>
@@ -30176,7 +30206,7 @@
         <v>3160</v>
       </c>
       <c r="E446" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>1699</v>
@@ -30185,13 +30215,13 @@
         <v>693</v>
       </c>
       <c r="K446" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="L446" t="s">
         <v>652</v>
       </c>
       <c r="M446" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="N446">
         <v>9</v>
@@ -30211,7 +30241,7 @@
         <v>3164</v>
       </c>
       <c r="E447" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>1699</v>
@@ -30220,13 +30250,13 @@
         <v>694</v>
       </c>
       <c r="K447" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="L447" t="s">
         <v>652</v>
       </c>
       <c r="M447" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="N447">
         <v>9</v>
@@ -30246,7 +30276,7 @@
         <v>3168</v>
       </c>
       <c r="E448" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>1699</v>
@@ -30261,7 +30291,7 @@
         <v>652</v>
       </c>
       <c r="M448" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="N448">
         <v>9</v>
@@ -30281,7 +30311,7 @@
         <v>3172</v>
       </c>
       <c r="E449" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>1699</v>
@@ -30290,13 +30320,13 @@
         <v>694</v>
       </c>
       <c r="K449" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="L449" t="s">
         <v>652</v>
       </c>
       <c r="M449" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="N449">
         <v>9</v>
@@ -30316,7 +30346,7 @@
         <v>3176</v>
       </c>
       <c r="E450" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>1699</v>
@@ -30325,13 +30355,13 @@
         <v>693</v>
       </c>
       <c r="K450" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="L450" t="s">
         <v>652</v>
       </c>
       <c r="M450" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="N450">
         <v>9</v>
@@ -30351,7 +30381,7 @@
         <v>3180</v>
       </c>
       <c r="E451" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>1699</v>
@@ -30360,13 +30390,13 @@
         <v>694</v>
       </c>
       <c r="K451" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="L451" t="s">
         <v>652</v>
       </c>
       <c r="M451" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="N451">
         <v>9</v>
@@ -30386,7 +30416,7 @@
         <v>3184</v>
       </c>
       <c r="E452" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>1699</v>
@@ -30395,13 +30425,13 @@
         <v>694</v>
       </c>
       <c r="K452" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="L452" t="s">
         <v>835</v>
       </c>
       <c r="M452" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="N452">
         <v>9</v>
@@ -30421,7 +30451,7 @@
         <v>3188</v>
       </c>
       <c r="E453" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>1699</v>
@@ -30430,13 +30460,13 @@
         <v>694</v>
       </c>
       <c r="K453" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="L453" t="s">
         <v>652</v>
       </c>
       <c r="M453" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="N453">
         <v>9</v>
@@ -30456,7 +30486,7 @@
         <v>3192</v>
       </c>
       <c r="E454" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>1699</v>
@@ -30465,7 +30495,7 @@
         <v>693</v>
       </c>
       <c r="K454" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="L454" t="s">
         <v>670</v>
@@ -30491,7 +30521,7 @@
         <v>3196</v>
       </c>
       <c r="E455" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>1699</v>
@@ -30500,13 +30530,13 @@
         <v>693</v>
       </c>
       <c r="K455" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="L455" t="s">
         <v>652</v>
       </c>
       <c r="M455" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="N455">
         <v>9</v>
@@ -30526,7 +30556,7 @@
         <v>3200</v>
       </c>
       <c r="E456" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>1699</v>
@@ -30535,13 +30565,13 @@
         <v>693</v>
       </c>
       <c r="K456" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="L456" t="s">
         <v>652</v>
       </c>
       <c r="M456" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="N456">
         <v>9</v>
@@ -30561,7 +30591,7 @@
         <v>3204</v>
       </c>
       <c r="E457" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>1699</v>
@@ -30570,13 +30600,13 @@
         <v>693</v>
       </c>
       <c r="K457" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="L457" t="s">
         <v>652</v>
       </c>
       <c r="M457" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="N457">
         <v>9</v>
@@ -30596,7 +30626,7 @@
         <v>3208</v>
       </c>
       <c r="E458" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>1699</v>
@@ -30608,10 +30638,10 @@
         <v>749</v>
       </c>
       <c r="L458" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="M458" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="N458">
         <v>9</v>
@@ -30631,7 +30661,7 @@
         <v>3212</v>
       </c>
       <c r="E459" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>1699</v>
@@ -30640,13 +30670,13 @@
         <v>693</v>
       </c>
       <c r="K459" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="L459" t="s">
         <v>656</v>
       </c>
       <c r="M459" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="N459">
         <v>9</v>
@@ -30666,7 +30696,7 @@
         <v>3216</v>
       </c>
       <c r="E460" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>1699</v>
@@ -30675,13 +30705,13 @@
         <v>694</v>
       </c>
       <c r="K460" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="L460" t="s">
         <v>652</v>
       </c>
       <c r="M460" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="N460">
         <v>9</v>
@@ -30701,7 +30731,7 @@
         <v>3220</v>
       </c>
       <c r="E461" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>1699</v>
@@ -30710,13 +30740,13 @@
         <v>694</v>
       </c>
       <c r="K461" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="L461" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="M461" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="N461">
         <v>9</v>
@@ -30736,7 +30766,7 @@
         <v>3224</v>
       </c>
       <c r="E462" t="s">
-        <v>4036</v>
+        <v>4035</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>1699</v>
@@ -30745,13 +30775,13 @@
         <v>694</v>
       </c>
       <c r="K462" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="L462" t="s">
         <v>652</v>
       </c>
       <c r="M462" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="N462">
         <v>9</v>
@@ -30771,7 +30801,7 @@
         <v>3228</v>
       </c>
       <c r="E463" t="s">
-        <v>4037</v>
+        <v>4036</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>1699</v>
@@ -30780,13 +30810,13 @@
         <v>694</v>
       </c>
       <c r="K463" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="L463" t="s">
         <v>652</v>
       </c>
       <c r="M463" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="N463">
         <v>9</v>
@@ -30806,7 +30836,7 @@
         <v>3232</v>
       </c>
       <c r="E464" t="s">
-        <v>4038</v>
+        <v>4037</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>1699</v>
@@ -30815,13 +30845,13 @@
         <v>694</v>
       </c>
       <c r="K464" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="L464" t="s">
         <v>652</v>
       </c>
       <c r="M464" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="N464">
         <v>9</v>
@@ -30841,7 +30871,7 @@
         <v>3236</v>
       </c>
       <c r="E465" t="s">
-        <v>4039</v>
+        <v>4038</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>1699</v>
@@ -30850,13 +30880,13 @@
         <v>694</v>
       </c>
       <c r="K465" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="L465" t="s">
         <v>2651</v>
       </c>
       <c r="M465" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="N465">
         <v>9</v>
@@ -30876,7 +30906,7 @@
         <v>3240</v>
       </c>
       <c r="E466" t="s">
-        <v>4040</v>
+        <v>4039</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>1699</v>
@@ -30885,13 +30915,13 @@
         <v>694</v>
       </c>
       <c r="K466" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="L466" t="s">
         <v>652</v>
       </c>
       <c r="M466" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="N466">
         <v>9</v>
@@ -30911,7 +30941,7 @@
         <v>3244</v>
       </c>
       <c r="E467" t="s">
-        <v>4041</v>
+        <v>4040</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>1699</v>
@@ -30920,13 +30950,13 @@
         <v>694</v>
       </c>
       <c r="K467" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="L467" t="s">
         <v>686</v>
       </c>
       <c r="M467" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="N467">
         <v>9</v>
@@ -30946,7 +30976,7 @@
         <v>3248</v>
       </c>
       <c r="E468" t="s">
-        <v>4042</v>
+        <v>4041</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>1699</v>
@@ -30955,13 +30985,13 @@
         <v>694</v>
       </c>
       <c r="K468" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="L468" t="s">
         <v>652</v>
       </c>
       <c r="M468" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="N468">
         <v>9</v>
@@ -30981,7 +31011,7 @@
         <v>3252</v>
       </c>
       <c r="E469" t="s">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>1699</v>
@@ -30996,7 +31026,7 @@
         <v>652</v>
       </c>
       <c r="M469" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="N469">
         <v>9</v>
@@ -31016,7 +31046,7 @@
         <v>3256</v>
       </c>
       <c r="E470" t="s">
-        <v>4044</v>
+        <v>4043</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>1699</v>
@@ -31025,13 +31055,13 @@
         <v>693</v>
       </c>
       <c r="K470" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="L470" t="s">
         <v>656</v>
       </c>
       <c r="M470" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="N470">
         <v>9</v>
@@ -31051,7 +31081,7 @@
         <v>3260</v>
       </c>
       <c r="E471" t="s">
-        <v>4045</v>
+        <v>4044</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>1699</v>
@@ -31060,13 +31090,13 @@
         <v>693</v>
       </c>
       <c r="K471" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="L471" t="s">
         <v>652</v>
       </c>
       <c r="M471" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="N471">
         <v>9</v>
@@ -31086,7 +31116,7 @@
         <v>3264</v>
       </c>
       <c r="E472" t="s">
-        <v>4046</v>
+        <v>4045</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>1699</v>
@@ -31095,13 +31125,13 @@
         <v>693</v>
       </c>
       <c r="K472" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="L472" t="s">
         <v>656</v>
       </c>
       <c r="M472" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="N472">
         <v>9</v>
@@ -31121,7 +31151,7 @@
         <v>3268</v>
       </c>
       <c r="E473" t="s">
-        <v>4047</v>
+        <v>4046</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>1699</v>
@@ -31130,13 +31160,13 @@
         <v>693</v>
       </c>
       <c r="K473" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="L473" t="s">
         <v>682</v>
       </c>
       <c r="M473" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="N473">
         <v>9</v>
@@ -31156,7 +31186,7 @@
         <v>3272</v>
       </c>
       <c r="E474" t="s">
-        <v>4048</v>
+        <v>4047</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>1699</v>
@@ -31165,13 +31195,13 @@
         <v>693</v>
       </c>
       <c r="K474" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="L474" t="s">
         <v>682</v>
       </c>
       <c r="M474" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="N474">
         <v>9</v>
@@ -31191,7 +31221,7 @@
         <v>3276</v>
       </c>
       <c r="E475" t="s">
-        <v>4049</v>
+        <v>4048</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>1699</v>
@@ -31200,13 +31230,13 @@
         <v>693</v>
       </c>
       <c r="K475" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="L475" t="s">
         <v>652</v>
       </c>
       <c r="M475" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="N475">
         <v>9</v>
@@ -31226,7 +31256,7 @@
         <v>3280</v>
       </c>
       <c r="E476" t="s">
-        <v>4050</v>
+        <v>4049</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>1699</v>
@@ -31235,13 +31265,13 @@
         <v>693</v>
       </c>
       <c r="K476" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="L476" t="s">
         <v>652</v>
       </c>
       <c r="M476" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="N476">
         <v>9</v>
@@ -31261,7 +31291,7 @@
         <v>3284</v>
       </c>
       <c r="E477" t="s">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>1699</v>
@@ -31276,7 +31306,7 @@
         <v>652</v>
       </c>
       <c r="M477" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="N477">
         <v>9</v>
@@ -31296,7 +31326,7 @@
         <v>3288</v>
       </c>
       <c r="E478" t="s">
-        <v>4052</v>
+        <v>4051</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>1699</v>
@@ -31305,13 +31335,13 @@
         <v>693</v>
       </c>
       <c r="K478" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="L478" t="s">
         <v>656</v>
       </c>
       <c r="M478" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="N478">
         <v>9</v>
@@ -31331,7 +31361,7 @@
         <v>3292</v>
       </c>
       <c r="E479" t="s">
-        <v>4053</v>
+        <v>4052</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>1699</v>
@@ -31340,13 +31370,13 @@
         <v>693</v>
       </c>
       <c r="K479" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="L479" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="M479" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="N479">
         <v>9</v>
@@ -31366,7 +31396,7 @@
         <v>3296</v>
       </c>
       <c r="E480" t="s">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>1699</v>
@@ -31375,13 +31405,13 @@
         <v>693</v>
       </c>
       <c r="K480" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="L480" t="s">
         <v>652</v>
       </c>
       <c r="M480" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="N480">
         <v>9</v>
@@ -31401,7 +31431,7 @@
         <v>3300</v>
       </c>
       <c r="E481" t="s">
-        <v>4055</v>
+        <v>4054</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>1699</v>
@@ -31410,13 +31440,13 @@
         <v>693</v>
       </c>
       <c r="K481" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="L481" t="s">
         <v>652</v>
       </c>
       <c r="M481" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="N481">
         <v>9</v>
@@ -31436,7 +31466,7 @@
         <v>3304</v>
       </c>
       <c r="E482" t="s">
-        <v>4056</v>
+        <v>4055</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>1699</v>
@@ -31445,13 +31475,13 @@
         <v>693</v>
       </c>
       <c r="K482" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="L482" t="s">
         <v>656</v>
       </c>
       <c r="M482" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="N482">
         <v>9</v>
@@ -31471,7 +31501,7 @@
         <v>3308</v>
       </c>
       <c r="E483" t="s">
-        <v>4057</v>
+        <v>4056</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>1699</v>
@@ -31480,13 +31510,13 @@
         <v>693</v>
       </c>
       <c r="K483" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="L483" t="s">
         <v>652</v>
       </c>
       <c r="M483" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="N483">
         <v>9</v>
@@ -31506,7 +31536,7 @@
         <v>3312</v>
       </c>
       <c r="E484" t="s">
-        <v>4058</v>
+        <v>4057</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>1699</v>
@@ -31515,13 +31545,13 @@
         <v>693</v>
       </c>
       <c r="K484" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="L484" t="s">
         <v>2636</v>
       </c>
       <c r="M484" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="N484">
         <v>9</v>
@@ -31541,7 +31571,7 @@
         <v>3316</v>
       </c>
       <c r="E485" t="s">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>1699</v>
@@ -31550,13 +31580,13 @@
         <v>693</v>
       </c>
       <c r="K485" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="L485" t="s">
         <v>652</v>
       </c>
       <c r="M485" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="N485">
         <v>9</v>
@@ -31576,7 +31606,7 @@
         <v>3320</v>
       </c>
       <c r="E486" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>1699</v>
@@ -31585,13 +31615,13 @@
         <v>693</v>
       </c>
       <c r="K486" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="L486" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="M486" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="N486">
         <v>9</v>
@@ -31611,7 +31641,7 @@
         <v>3324</v>
       </c>
       <c r="E487" t="s">
-        <v>4061</v>
+        <v>4060</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>1699</v>
@@ -31620,13 +31650,13 @@
         <v>693</v>
       </c>
       <c r="K487" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="L487" t="s">
         <v>652</v>
       </c>
       <c r="M487" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="N487">
         <v>9</v>
@@ -31646,7 +31676,7 @@
         <v>3328</v>
       </c>
       <c r="E488" t="s">
-        <v>4062</v>
+        <v>4061</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>1699</v>
@@ -31655,13 +31685,13 @@
         <v>693</v>
       </c>
       <c r="K488" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="L488" t="s">
         <v>656</v>
       </c>
       <c r="M488" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="N488">
         <v>9</v>
@@ -31681,7 +31711,7 @@
         <v>3332</v>
       </c>
       <c r="E489" t="s">
-        <v>4063</v>
+        <v>4062</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>1699</v>
@@ -31690,13 +31720,13 @@
         <v>693</v>
       </c>
       <c r="K489" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="L489" t="s">
         <v>652</v>
       </c>
       <c r="M489" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="N489">
         <v>9</v>
@@ -31716,7 +31746,7 @@
         <v>3336</v>
       </c>
       <c r="E490" t="s">
-        <v>4064</v>
+        <v>4063</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>1699</v>
@@ -31725,13 +31755,13 @@
         <v>693</v>
       </c>
       <c r="K490" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="L490" t="s">
         <v>656</v>
       </c>
       <c r="M490" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="N490">
         <v>9</v>
@@ -31751,7 +31781,7 @@
         <v>3340</v>
       </c>
       <c r="E491" t="s">
-        <v>4065</v>
+        <v>4064</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>1699</v>
@@ -31760,13 +31790,13 @@
         <v>693</v>
       </c>
       <c r="K491" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="L491" t="s">
         <v>2651</v>
       </c>
       <c r="M491" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="N491">
         <v>9</v>
@@ -31786,7 +31816,7 @@
         <v>3344</v>
       </c>
       <c r="E492" t="s">
-        <v>4066</v>
+        <v>4065</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>1699</v>
@@ -31795,13 +31825,13 @@
         <v>693</v>
       </c>
       <c r="K492" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="L492" t="s">
         <v>652</v>
       </c>
       <c r="M492" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="N492">
         <v>9</v>
@@ -31821,7 +31851,7 @@
         <v>3348</v>
       </c>
       <c r="E493" t="s">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>1699</v>
@@ -31830,13 +31860,13 @@
         <v>693</v>
       </c>
       <c r="K493" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="L493" t="s">
         <v>652</v>
       </c>
       <c r="M493" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="N493">
         <v>9</v>
@@ -31856,7 +31886,7 @@
         <v>3352</v>
       </c>
       <c r="E494" t="s">
-        <v>4068</v>
+        <v>4067</v>
       </c>
       <c r="F494" s="2" t="s">
         <v>1699</v>
@@ -31865,13 +31895,13 @@
         <v>693</v>
       </c>
       <c r="K494" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="L494" t="s">
         <v>652</v>
       </c>
       <c r="M494" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="N494">
         <v>9</v>
@@ -31891,7 +31921,7 @@
         <v>3356</v>
       </c>
       <c r="E495" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>1699</v>
@@ -31906,7 +31936,7 @@
         <v>652</v>
       </c>
       <c r="M495" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="N495">
         <v>9</v>
@@ -31926,7 +31956,7 @@
         <v>3360</v>
       </c>
       <c r="E496" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>1699</v>
@@ -31935,13 +31965,13 @@
         <v>693</v>
       </c>
       <c r="K496" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="L496" t="s">
         <v>656</v>
       </c>
       <c r="M496" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="N496">
         <v>9</v>
@@ -31961,7 +31991,7 @@
         <v>3364</v>
       </c>
       <c r="E497" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>1699</v>
@@ -31970,13 +32000,13 @@
         <v>693</v>
       </c>
       <c r="K497" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="L497" t="s">
         <v>652</v>
       </c>
       <c r="M497" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="N497">
         <v>9</v>
@@ -31996,7 +32026,7 @@
         <v>3368</v>
       </c>
       <c r="E498" t="s">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>1699</v>
@@ -32005,13 +32035,13 @@
         <v>693</v>
       </c>
       <c r="K498" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="L498" t="s">
         <v>652</v>
       </c>
       <c r="M498" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="N498">
         <v>9</v>
@@ -32031,7 +32061,7 @@
         <v>3372</v>
       </c>
       <c r="E499" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>1699</v>
@@ -32040,13 +32070,13 @@
         <v>693</v>
       </c>
       <c r="K499" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="L499" t="s">
         <v>652</v>
       </c>
       <c r="M499" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="N499">
         <v>9</v>
@@ -32066,7 +32096,7 @@
         <v>3376</v>
       </c>
       <c r="E500" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="F500" s="2" t="s">
         <v>1699</v>
@@ -32075,13 +32105,13 @@
         <v>693</v>
       </c>
       <c r="K500" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="L500" t="s">
         <v>652</v>
       </c>
       <c r="M500" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="N500">
         <v>9</v>
@@ -32101,7 +32131,7 @@
         <v>3380</v>
       </c>
       <c r="E501" t="s">
-        <v>4075</v>
+        <v>4074</v>
       </c>
       <c r="F501" s="2" t="s">
         <v>1699</v>
@@ -32110,13 +32140,13 @@
         <v>694</v>
       </c>
       <c r="K501" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="L501" t="s">
         <v>652</v>
       </c>
       <c r="M501" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="N501">
         <v>9</v>
@@ -32136,7 +32166,7 @@
         <v>3384</v>
       </c>
       <c r="E502" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>1699</v>
@@ -32145,13 +32175,13 @@
         <v>694</v>
       </c>
       <c r="K502" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="L502" t="s">
         <v>652</v>
       </c>
       <c r="M502" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="N502">
         <v>9</v>
@@ -32171,7 +32201,7 @@
         <v>3388</v>
       </c>
       <c r="E503" t="s">
-        <v>4077</v>
+        <v>4076</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>1699</v>
@@ -32180,13 +32210,13 @@
         <v>694</v>
       </c>
       <c r="K503" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="L503" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="M503" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="N503">
         <v>9</v>
@@ -32206,7 +32236,7 @@
         <v>3392</v>
       </c>
       <c r="E504" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>1699</v>
@@ -32215,7 +32245,7 @@
         <v>694</v>
       </c>
       <c r="K504" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="L504" t="s">
         <v>656</v>
@@ -32241,7 +32271,7 @@
         <v>3396</v>
       </c>
       <c r="E505" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>1699</v>
@@ -32250,13 +32280,13 @@
         <v>694</v>
       </c>
       <c r="K505" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="L505" t="s">
         <v>670</v>
       </c>
       <c r="M505" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="N505">
         <v>9</v>
@@ -32276,7 +32306,7 @@
         <v>3400</v>
       </c>
       <c r="E506" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>1699</v>
@@ -32285,13 +32315,13 @@
         <v>694</v>
       </c>
       <c r="K506" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="L506" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="M506" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="N506">
         <v>9</v>
@@ -32311,7 +32341,7 @@
         <v>3404</v>
       </c>
       <c r="E507" t="s">
-        <v>4081</v>
+        <v>4080</v>
       </c>
       <c r="F507" s="2" t="s">
         <v>1699</v>
@@ -32320,13 +32350,13 @@
         <v>694</v>
       </c>
       <c r="K507" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="L507" t="s">
         <v>652</v>
       </c>
       <c r="M507" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="N507">
         <v>9</v>
@@ -32346,7 +32376,7 @@
         <v>3408</v>
       </c>
       <c r="E508" t="s">
-        <v>4082</v>
+        <v>4081</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>1699</v>
@@ -32355,13 +32385,13 @@
         <v>694</v>
       </c>
       <c r="K508" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="L508" t="s">
         <v>652</v>
       </c>
       <c r="M508" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="N508">
         <v>9</v>
@@ -32381,7 +32411,7 @@
         <v>3411</v>
       </c>
       <c r="E509" t="s">
-        <v>4083</v>
+        <v>4082</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>1699</v>
@@ -32396,7 +32426,7 @@
         <v>652</v>
       </c>
       <c r="M509" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="N509">
         <v>9</v>
@@ -32416,7 +32446,7 @@
         <v>3415</v>
       </c>
       <c r="E510" t="s">
-        <v>4084</v>
+        <v>4083</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>1699</v>
@@ -32425,13 +32455,13 @@
         <v>694</v>
       </c>
       <c r="K510" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="L510" t="s">
         <v>652</v>
       </c>
       <c r="M510" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="N510">
         <v>9</v>
@@ -32451,7 +32481,7 @@
         <v>3419</v>
       </c>
       <c r="E511" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>1699</v>
@@ -32460,13 +32490,13 @@
         <v>694</v>
       </c>
       <c r="K511" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="L511" t="s">
         <v>652</v>
       </c>
       <c r="M511" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="N511">
         <v>9</v>
@@ -32486,7 +32516,7 @@
         <v>3423</v>
       </c>
       <c r="E512" t="s">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>1699</v>
@@ -32495,7 +32525,7 @@
         <v>694</v>
       </c>
       <c r="K512" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="L512" t="s">
         <v>652</v>
@@ -32521,7 +32551,7 @@
         <v>3427</v>
       </c>
       <c r="E513" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>1699</v>
@@ -32536,7 +32566,7 @@
         <v>652</v>
       </c>
       <c r="M513" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="N513">
         <v>9</v>
@@ -32556,7 +32586,7 @@
         <v>3431</v>
       </c>
       <c r="E514" t="s">
-        <v>4088</v>
+        <v>4087</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>1699</v>
@@ -32565,13 +32595,13 @@
         <v>693</v>
       </c>
       <c r="K514" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="L514" t="s">
         <v>656</v>
       </c>
       <c r="M514" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="N514">
         <v>9</v>
@@ -32591,7 +32621,7 @@
         <v>3435</v>
       </c>
       <c r="E515" t="s">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>1699</v>
@@ -32605,8 +32635,8 @@
       <c r="L515" t="s">
         <v>655</v>
       </c>
-      <c r="M515" t="e">
-        <v>#VALUE!</v>
+      <c r="M515" t="s">
+        <v>3936</v>
       </c>
       <c r="N515">
         <v>9</v>
@@ -32626,7 +32656,7 @@
         <v>3439</v>
       </c>
       <c r="E516" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>1699</v>
@@ -32635,13 +32665,13 @@
         <v>694</v>
       </c>
       <c r="K516" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="L516" t="s">
         <v>652</v>
       </c>
       <c r="M516" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="N516">
         <v>9</v>
@@ -32661,7 +32691,7 @@
         <v>3443</v>
       </c>
       <c r="E517" t="s">
-        <v>4091</v>
+        <v>4090</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>1699</v>
@@ -32670,13 +32700,13 @@
         <v>693</v>
       </c>
       <c r="K517" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="L517" t="s">
         <v>652</v>
       </c>
       <c r="M517" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="N517">
         <v>9</v>
@@ -32696,7 +32726,7 @@
         <v>3447</v>
       </c>
       <c r="E518" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>1699</v>
@@ -32705,13 +32735,13 @@
         <v>693</v>
       </c>
       <c r="K518" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="L518" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="M518" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="N518">
         <v>9</v>
@@ -32731,7 +32761,7 @@
         <v>3451</v>
       </c>
       <c r="E519" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>1699</v>
@@ -32740,13 +32770,13 @@
         <v>693</v>
       </c>
       <c r="K519" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="L519" t="s">
         <v>652</v>
       </c>
       <c r="M519" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="N519">
         <v>9</v>
@@ -32766,7 +32796,7 @@
         <v>3455</v>
       </c>
       <c r="E520" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>1699</v>
@@ -32775,13 +32805,13 @@
         <v>694</v>
       </c>
       <c r="K520" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="L520" t="s">
         <v>652</v>
       </c>
       <c r="M520" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="N520">
         <v>9</v>
@@ -32801,7 +32831,7 @@
         <v>3459</v>
       </c>
       <c r="E521" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>1699</v>
@@ -32810,13 +32840,13 @@
         <v>693</v>
       </c>
       <c r="K521" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="L521" t="s">
         <v>656</v>
       </c>
       <c r="M521" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="N521">
         <v>9</v>
@@ -32836,7 +32866,7 @@
         <v>3463</v>
       </c>
       <c r="E522" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>1699</v>
@@ -32845,13 +32875,13 @@
         <v>693</v>
       </c>
       <c r="K522" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="L522" t="s">
         <v>2658</v>
       </c>
       <c r="M522" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="N522">
         <v>9</v>
@@ -32871,7 +32901,7 @@
         <v>3467</v>
       </c>
       <c r="E523" t="s">
-        <v>4097</v>
+        <v>4096</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>1699</v>
@@ -32880,13 +32910,13 @@
         <v>693</v>
       </c>
       <c r="K523" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="L523" t="s">
         <v>652</v>
       </c>
       <c r="M523" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="N523">
         <v>9</v>
@@ -32906,7 +32936,7 @@
         <v>3471</v>
       </c>
       <c r="E524" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>1699</v>
@@ -32915,13 +32945,13 @@
         <v>693</v>
       </c>
       <c r="K524" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="L524" t="s">
         <v>652</v>
       </c>
       <c r="M524" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="N524">
         <v>9</v>
@@ -32941,7 +32971,7 @@
         <v>3475</v>
       </c>
       <c r="E525" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>1699</v>
@@ -32950,13 +32980,13 @@
         <v>694</v>
       </c>
       <c r="K525" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="L525" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="M525" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="N525">
         <v>9</v>
@@ -32976,7 +33006,7 @@
         <v>3479</v>
       </c>
       <c r="E526" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>1699</v>
@@ -32985,13 +33015,13 @@
         <v>693</v>
       </c>
       <c r="K526" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="L526" t="s">
         <v>670</v>
       </c>
       <c r="M526" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="N526">
         <v>9</v>
@@ -33011,7 +33041,7 @@
         <v>3483</v>
       </c>
       <c r="E527" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>1699</v>
@@ -33020,13 +33050,13 @@
         <v>694</v>
       </c>
       <c r="K527" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="L527" t="s">
         <v>652</v>
       </c>
       <c r="M527" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="N527">
         <v>9</v>
@@ -33046,7 +33076,7 @@
         <v>3487</v>
       </c>
       <c r="E528" t="s">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>1699</v>
@@ -33055,13 +33085,13 @@
         <v>693</v>
       </c>
       <c r="K528" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="L528" t="s">
         <v>656</v>
       </c>
       <c r="M528" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="N528">
         <v>9</v>
@@ -33081,7 +33111,7 @@
         <v>3491</v>
       </c>
       <c r="E529" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>1699</v>
@@ -33090,13 +33120,13 @@
         <v>694</v>
       </c>
       <c r="K529" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="L529" t="s">
         <v>652</v>
       </c>
       <c r="M529" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="N529">
         <v>9</v>
@@ -33116,7 +33146,7 @@
         <v>3495</v>
       </c>
       <c r="E530" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>1699</v>
@@ -33125,13 +33155,13 @@
         <v>694</v>
       </c>
       <c r="K530" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="L530" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="M530" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="N530">
         <v>9</v>
@@ -33151,7 +33181,7 @@
         <v>3499</v>
       </c>
       <c r="E531" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>1699</v>
@@ -33160,13 +33190,13 @@
         <v>693</v>
       </c>
       <c r="K531" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="L531" t="s">
         <v>652</v>
       </c>
       <c r="M531" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="N531">
         <v>9</v>
@@ -33186,7 +33216,7 @@
         <v>3503</v>
       </c>
       <c r="E532" t="s">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>1699</v>
@@ -33195,13 +33225,13 @@
         <v>693</v>
       </c>
       <c r="K532" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="L532" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="M532" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="N532">
         <v>9</v>
@@ -33221,7 +33251,7 @@
         <v>3507</v>
       </c>
       <c r="E533" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>1699</v>
@@ -33230,13 +33260,13 @@
         <v>694</v>
       </c>
       <c r="K533" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="L533" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="M533" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="N533">
         <v>9</v>
@@ -33256,7 +33286,7 @@
         <v>3511</v>
       </c>
       <c r="E534" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>1699</v>
@@ -33265,13 +33295,13 @@
         <v>693</v>
       </c>
       <c r="K534" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="L534" t="s">
         <v>652</v>
       </c>
       <c r="M534" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="N534">
         <v>9</v>
@@ -33291,7 +33321,7 @@
         <v>3515</v>
       </c>
       <c r="E535" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>1699</v>
@@ -33300,13 +33330,13 @@
         <v>694</v>
       </c>
       <c r="K535" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="L535" t="s">
         <v>656</v>
       </c>
-      <c r="M535" t="e">
-        <v>#N/A</v>
+      <c r="M535" t="s">
+        <v>3949</v>
       </c>
       <c r="N535">
         <v>9</v>
@@ -33326,7 +33356,7 @@
         <v>3519</v>
       </c>
       <c r="E536" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>1699</v>
@@ -33335,13 +33365,13 @@
         <v>694</v>
       </c>
       <c r="K536" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="L536" t="s">
         <v>652</v>
       </c>
       <c r="M536" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="N536">
         <v>9</v>
@@ -33361,7 +33391,7 @@
         <v>3523</v>
       </c>
       <c r="E537" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>1699</v>
@@ -33370,13 +33400,13 @@
         <v>693</v>
       </c>
       <c r="K537" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="L537" t="s">
         <v>652</v>
       </c>
       <c r="M537" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="N537">
         <v>9</v>
@@ -33396,7 +33426,7 @@
         <v>3527</v>
       </c>
       <c r="E538" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>1699</v>
@@ -33411,7 +33441,7 @@
         <v>2640</v>
       </c>
       <c r="M538" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="N538">
         <v>9</v>
@@ -33431,7 +33461,7 @@
         <v>3531</v>
       </c>
       <c r="E539" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>1699</v>
@@ -33440,13 +33470,13 @@
         <v>694</v>
       </c>
       <c r="K539" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="L539" t="s">
         <v>656</v>
       </c>
       <c r="M539" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="N539">
         <v>9</v>
@@ -33466,7 +33496,7 @@
         <v>3535</v>
       </c>
       <c r="E540" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>1699</v>
@@ -33475,13 +33505,13 @@
         <v>694</v>
       </c>
       <c r="K540" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="L540" t="s">
         <v>652</v>
       </c>
       <c r="M540" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="N540">
         <v>9</v>
@@ -33501,7 +33531,7 @@
         <v>3539</v>
       </c>
       <c r="E541" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>1699</v>
@@ -33510,13 +33540,13 @@
         <v>693</v>
       </c>
       <c r="K541" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="L541" t="s">
         <v>652</v>
       </c>
       <c r="M541" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="N541">
         <v>9</v>
@@ -33536,7 +33566,7 @@
         <v>3543</v>
       </c>
       <c r="E542" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>1699</v>
@@ -33545,13 +33575,13 @@
         <v>693</v>
       </c>
       <c r="K542" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="L542" t="s">
         <v>652</v>
       </c>
       <c r="M542" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="N542">
         <v>9</v>
@@ -33571,7 +33601,7 @@
         <v>3547</v>
       </c>
       <c r="E543" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>1699</v>
@@ -33580,13 +33610,13 @@
         <v>694</v>
       </c>
       <c r="K543" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="L543" t="s">
         <v>656</v>
       </c>
       <c r="M543" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="N543">
         <v>9</v>
@@ -33606,7 +33636,7 @@
         <v>3551</v>
       </c>
       <c r="E544" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
       <c r="F544" s="2" t="s">
         <v>1699</v>
@@ -33615,13 +33645,13 @@
         <v>694</v>
       </c>
       <c r="K544" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="L544" t="s">
         <v>670</v>
       </c>
       <c r="M544" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="N544">
         <v>9</v>
@@ -33641,7 +33671,7 @@
         <v>3555</v>
       </c>
       <c r="E545" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
       <c r="F545" s="2" t="s">
         <v>1699</v>
@@ -33650,13 +33680,13 @@
         <v>694</v>
       </c>
       <c r="K545" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="L545" t="s">
         <v>2658</v>
       </c>
       <c r="M545" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="N545">
         <v>9</v>
@@ -33676,7 +33706,7 @@
         <v>3559</v>
       </c>
       <c r="E546" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>1699</v>
@@ -33685,13 +33715,13 @@
         <v>693</v>
       </c>
       <c r="K546" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="L546" t="s">
         <v>652</v>
       </c>
       <c r="M546" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="N546">
         <v>9</v>
@@ -33711,7 +33741,7 @@
         <v>3563</v>
       </c>
       <c r="E547" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>1699</v>
@@ -33720,13 +33750,13 @@
         <v>693</v>
       </c>
       <c r="K547" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="L547" t="s">
         <v>2632</v>
       </c>
-      <c r="M547" t="e">
-        <v>#VALUE!</v>
+      <c r="M547" t="s">
+        <v>3959</v>
       </c>
       <c r="N547">
         <v>9</v>
@@ -33746,7 +33776,7 @@
         <v>3567</v>
       </c>
       <c r="E548" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>1699</v>
@@ -33755,13 +33785,13 @@
         <v>694</v>
       </c>
       <c r="K548" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="L548" t="s">
         <v>652</v>
       </c>
       <c r="M548" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="N548">
         <v>9</v>
@@ -33781,7 +33811,7 @@
         <v>3571</v>
       </c>
       <c r="E549" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>1699</v>
@@ -33790,13 +33820,13 @@
         <v>694</v>
       </c>
       <c r="K549" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="L549" t="s">
         <v>652</v>
       </c>
       <c r="M549" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="N549">
         <v>9</v>
@@ -33816,7 +33846,7 @@
         <v>3575</v>
       </c>
       <c r="E550" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
       <c r="F550" s="2" t="s">
         <v>1699</v>
@@ -33825,13 +33855,13 @@
         <v>694</v>
       </c>
       <c r="K550" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="L550" t="s">
         <v>652</v>
       </c>
       <c r="M550" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="N550">
         <v>9</v>
@@ -33851,7 +33881,7 @@
         <v>3579</v>
       </c>
       <c r="E551" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="F551" s="2" t="s">
         <v>1699</v>
@@ -33860,13 +33890,13 @@
         <v>694</v>
       </c>
       <c r="K551" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="L551" t="s">
         <v>652</v>
       </c>
       <c r="M551" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="N551">
         <v>9</v>
@@ -33886,7 +33916,7 @@
         <v>3583</v>
       </c>
       <c r="E552" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
       <c r="F552" s="2" t="s">
         <v>1699</v>
@@ -33895,13 +33925,13 @@
         <v>694</v>
       </c>
       <c r="K552" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="L552" t="s">
         <v>652</v>
       </c>
       <c r="M552" t="s">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="N552">
         <v>9</v>
@@ -33921,7 +33951,7 @@
         <v>3587</v>
       </c>
       <c r="E553" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>1699</v>
@@ -33930,13 +33960,13 @@
         <v>694</v>
       </c>
       <c r="K553" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="L553" t="s">
         <v>656</v>
       </c>
       <c r="M553" t="s">
-        <v>3964</v>
+        <v>3963</v>
       </c>
       <c r="N553">
         <v>9</v>
@@ -33956,7 +33986,7 @@
         <v>3591</v>
       </c>
       <c r="E554" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>1699</v>
@@ -33965,13 +33995,13 @@
         <v>693</v>
       </c>
       <c r="K554" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="L554" t="s">
         <v>652</v>
       </c>
       <c r="M554" t="s">
-        <v>3965</v>
+        <v>3964</v>
       </c>
       <c r="N554">
         <v>9</v>
@@ -33991,7 +34021,7 @@
         <v>3595</v>
       </c>
       <c r="E555" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>1699</v>
@@ -34000,13 +34030,13 @@
         <v>694</v>
       </c>
       <c r="K555" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="L555" t="s">
         <v>652</v>
       </c>
       <c r="M555" t="s">
-        <v>3966</v>
+        <v>3965</v>
       </c>
       <c r="N555">
         <v>9</v>
@@ -34026,7 +34056,7 @@
         <v>3599</v>
       </c>
       <c r="E556" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>1699</v>
@@ -34035,13 +34065,13 @@
         <v>693</v>
       </c>
       <c r="K556" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="L556" t="s">
         <v>656</v>
       </c>
       <c r="M556" t="s">
-        <v>3967</v>
+        <v>3966</v>
       </c>
       <c r="N556">
         <v>9</v>
@@ -34061,7 +34091,7 @@
         <v>3603</v>
       </c>
       <c r="E557" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="F557" s="2" t="s">
         <v>1699</v>
@@ -34070,13 +34100,13 @@
         <v>694</v>
       </c>
       <c r="K557" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="L557" t="s">
         <v>2651</v>
       </c>
       <c r="M557" t="s">
-        <v>3968</v>
+        <v>3967</v>
       </c>
       <c r="N557">
         <v>9</v>
@@ -34096,7 +34126,7 @@
         <v>3607</v>
       </c>
       <c r="E558" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="F558" s="2" t="s">
         <v>1699</v>
@@ -34105,13 +34135,13 @@
         <v>693</v>
       </c>
       <c r="K558" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="L558" t="s">
         <v>662</v>
       </c>
       <c r="M558" t="s">
-        <v>3969</v>
+        <v>3968</v>
       </c>
       <c r="N558">
         <v>9</v>
@@ -34131,7 +34161,7 @@
         <v>3611</v>
       </c>
       <c r="E559" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
       <c r="F559" s="2" t="s">
         <v>1699</v>
@@ -34140,7 +34170,7 @@
         <v>694</v>
       </c>
       <c r="K559" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="L559" t="s">
         <v>656</v>
@@ -34166,7 +34196,7 @@
         <v>3615</v>
       </c>
       <c r="E560" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
       <c r="F560" s="2" t="s">
         <v>1699</v>
@@ -34175,13 +34205,13 @@
         <v>693</v>
       </c>
       <c r="K560" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="L560" t="s">
         <v>670</v>
       </c>
       <c r="M560" t="s">
-        <v>3970</v>
+        <v>3969</v>
       </c>
       <c r="N560">
         <v>9</v>
@@ -34201,7 +34231,7 @@
         <v>3619</v>
       </c>
       <c r="E561" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="F561" s="2" t="s">
         <v>1699</v>
@@ -34210,13 +34240,13 @@
         <v>694</v>
       </c>
       <c r="K561" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="L561" t="s">
         <v>652</v>
       </c>
       <c r="M561" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="N561">
         <v>9</v>
@@ -34236,7 +34266,7 @@
         <v>3623</v>
       </c>
       <c r="E562" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
       <c r="F562" s="2" t="s">
         <v>1699</v>
@@ -34245,13 +34275,13 @@
         <v>694</v>
       </c>
       <c r="K562" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="L562" t="s">
         <v>652</v>
       </c>
       <c r="M562" t="s">
-        <v>3972</v>
+        <v>3971</v>
       </c>
       <c r="N562">
         <v>9</v>
@@ -34271,7 +34301,7 @@
         <v>3627</v>
       </c>
       <c r="E563" t="s">
-        <v>4137</v>
+        <v>4136</v>
       </c>
       <c r="F563" s="2" t="s">
         <v>1699</v>
@@ -34280,13 +34310,13 @@
         <v>694</v>
       </c>
       <c r="K563" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="L563" t="s">
         <v>652</v>
       </c>
       <c r="M563" t="s">
-        <v>3971</v>
+        <v>3970</v>
       </c>
       <c r="N563">
         <v>9</v>
@@ -34306,7 +34336,7 @@
         <v>3631</v>
       </c>
       <c r="E564" t="s">
-        <v>4138</v>
+        <v>4137</v>
       </c>
       <c r="F564" s="2" t="s">
         <v>1699</v>
@@ -34315,13 +34345,13 @@
         <v>694</v>
       </c>
       <c r="K564" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="L564" t="s">
         <v>652</v>
       </c>
       <c r="M564" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="N564">
         <v>9</v>
@@ -34341,7 +34371,7 @@
         <v>3635</v>
       </c>
       <c r="E565" t="s">
-        <v>4139</v>
+        <v>4138</v>
       </c>
       <c r="F565" s="2" t="s">
         <v>1699</v>
@@ -34350,13 +34380,13 @@
         <v>693</v>
       </c>
       <c r="K565" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="L565" t="s">
         <v>2637</v>
       </c>
       <c r="M565" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="N565">
         <v>9</v>
@@ -34376,7 +34406,7 @@
         <v>3639</v>
       </c>
       <c r="E566" t="s">
-        <v>4140</v>
+        <v>4139</v>
       </c>
       <c r="F566" s="2" t="s">
         <v>1699</v>
@@ -34385,13 +34415,13 @@
         <v>694</v>
       </c>
       <c r="K566" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="L566" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="M566" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="N566">
         <v>9</v>
@@ -34411,7 +34441,7 @@
         <v>3643</v>
       </c>
       <c r="E567" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="F567" s="2" t="s">
         <v>1699</v>
@@ -34420,13 +34450,13 @@
         <v>694</v>
       </c>
       <c r="K567" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="L567" t="s">
         <v>652</v>
       </c>
       <c r="M567" t="s">
-        <v>3973</v>
+        <v>3972</v>
       </c>
       <c r="N567">
         <v>9</v>
@@ -34439,11 +34469,14 @@
       <c r="B568" t="s">
         <v>3645</v>
       </c>
-      <c r="C568" t="s">
-        <v>3646</v>
+      <c r="C568" s="8" t="s">
+        <v>4150</v>
+      </c>
+      <c r="D568" t="s">
+        <v>4149</v>
       </c>
       <c r="E568" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="F568" s="2" t="s">
         <v>1699</v>
@@ -34452,7 +34485,7 @@
         <v>694</v>
       </c>
       <c r="K568" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="L568" t="s">
         <v>652</v>
@@ -34466,19 +34499,19 @@
     </row>
     <row r="569" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
+        <v>3646</v>
+      </c>
+      <c r="B569" t="s">
         <v>3647</v>
-      </c>
-      <c r="B569" t="s">
-        <v>3648</v>
       </c>
       <c r="C569" t="s">
         <v>3642</v>
       </c>
       <c r="D569" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="E569" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="F569" s="2" t="s">
         <v>1699</v>
@@ -34487,33 +34520,33 @@
         <v>694</v>
       </c>
       <c r="K569" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="L569" t="s">
         <v>652</v>
       </c>
       <c r="M569" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="N569">
         <v>9</v>
       </c>
     </row>
     <row r="570" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A570" t="s">
-        <v>3644</v>
+      <c r="A570">
+        <v>222705</v>
       </c>
       <c r="B570" t="s">
+        <v>3649</v>
+      </c>
+      <c r="C570" t="s">
         <v>3650</v>
       </c>
-      <c r="C570" t="s">
+      <c r="D570" t="s">
         <v>3651</v>
       </c>
-      <c r="D570" t="s">
-        <v>3652</v>
-      </c>
-      <c r="E570" t="s">
-        <v>4142</v>
+      <c r="E570" s="10" t="s">
+        <v>4153</v>
       </c>
       <c r="F570" s="2" t="s">
         <v>1699</v>
@@ -34528,27 +34561,27 @@
         <v>652</v>
       </c>
       <c r="M570" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="N570">
         <v>9</v>
       </c>
     </row>
     <row r="571" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A571" t="s">
-        <v>3647</v>
+      <c r="A571">
+        <v>222706</v>
       </c>
       <c r="B571" t="s">
+        <v>3652</v>
+      </c>
+      <c r="C571" t="s">
         <v>3653</v>
       </c>
-      <c r="C571" t="s">
+      <c r="D571" t="s">
         <v>3654</v>
       </c>
-      <c r="D571" t="s">
-        <v>3655</v>
-      </c>
-      <c r="E571" t="s">
-        <v>4143</v>
+      <c r="E571" s="10" t="s">
+        <v>4154</v>
       </c>
       <c r="F571" s="2" t="s">
         <v>1699</v>
@@ -34557,13 +34590,13 @@
         <v>694</v>
       </c>
       <c r="K571" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="L571" t="s">
         <v>655</v>
       </c>
       <c r="M571" t="s">
-        <v>3974</v>
+        <v>3973</v>
       </c>
       <c r="N571">
         <v>9</v>
@@ -34571,19 +34604,19 @@
     </row>
     <row r="572" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B572" t="s">
         <v>3656</v>
       </c>
-      <c r="B572" t="s">
+      <c r="C572" t="s">
         <v>3657</v>
       </c>
-      <c r="C572" t="s">
+      <c r="D572" t="s">
         <v>3658</v>
       </c>
-      <c r="D572" t="s">
-        <v>3659</v>
-      </c>
       <c r="E572" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="F572" s="2" t="s">
         <v>1699</v>
@@ -34592,13 +34625,13 @@
         <v>693</v>
       </c>
       <c r="K572" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="L572" t="s">
         <v>656</v>
       </c>
       <c r="M572" t="s">
-        <v>3975</v>
+        <v>3974</v>
       </c>
       <c r="N572">
         <v>9</v>
@@ -34606,19 +34639,19 @@
     </row>
     <row r="573" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B573" t="s">
         <v>3660</v>
       </c>
-      <c r="B573" t="s">
+      <c r="C573" t="s">
         <v>3661</v>
       </c>
-      <c r="C573" t="s">
+      <c r="D573" t="s">
         <v>3662</v>
       </c>
-      <c r="D573" t="s">
-        <v>3663</v>
-      </c>
       <c r="E573" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="F573" s="2" t="s">
         <v>1699</v>
@@ -34627,13 +34660,13 @@
         <v>694</v>
       </c>
       <c r="K573" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="L573" t="s">
         <v>2653</v>
       </c>
       <c r="M573" t="s">
-        <v>3976</v>
+        <v>3975</v>
       </c>
       <c r="N573">
         <v>9</v>
@@ -34641,19 +34674,19 @@
     </row>
     <row r="574" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B574" t="s">
         <v>3664</v>
-      </c>
-      <c r="B574" t="s">
-        <v>3665</v>
       </c>
       <c r="C574" t="s">
         <v>2619</v>
       </c>
       <c r="D574" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="E574" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="F574" s="2" t="s">
         <v>1699</v>
@@ -34662,7 +34695,7 @@
         <v>693</v>
       </c>
       <c r="K574" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="L574" t="s">
         <v>652</v>
@@ -34676,19 +34709,19 @@
     </row>
     <row r="575" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B575" t="s">
         <v>3667</v>
       </c>
-      <c r="B575" t="s">
+      <c r="C575" t="s">
         <v>3668</v>
       </c>
-      <c r="C575" t="s">
+      <c r="D575" t="s">
         <v>3669</v>
       </c>
-      <c r="D575" t="s">
-        <v>3670</v>
-      </c>
       <c r="E575" t="s">
-        <v>4147</v>
+        <v>4146</v>
       </c>
       <c r="F575" s="2" t="s">
         <v>1699</v>
@@ -34697,13 +34730,13 @@
         <v>694</v>
       </c>
       <c r="K575" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="L575" t="s">
         <v>2653</v>
       </c>
       <c r="M575" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="N575">
         <v>9</v>
@@ -34711,19 +34744,19 @@
     </row>
     <row r="576" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B576" t="s">
         <v>3671</v>
       </c>
-      <c r="B576" t="s">
+      <c r="C576" t="s">
         <v>3672</v>
       </c>
-      <c r="C576" t="s">
+      <c r="D576" t="s">
         <v>3673</v>
       </c>
-      <c r="D576" t="s">
-        <v>3674</v>
-      </c>
       <c r="E576" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="F576" s="2" t="s">
         <v>1699</v>
@@ -34732,13 +34765,13 @@
         <v>694</v>
       </c>
       <c r="K576" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="L576" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="M576" t="s">
-        <v>3977</v>
+        <v>3976</v>
       </c>
       <c r="N576">
         <v>9</v>
@@ -34746,19 +34779,19 @@
     </row>
     <row r="577" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B577" t="s">
         <v>3675</v>
-      </c>
-      <c r="B577" t="s">
-        <v>3676</v>
       </c>
       <c r="C577" t="s">
         <v>2622</v>
       </c>
       <c r="D577" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="E577" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="F577" s="2" t="s">
         <v>1699</v>
@@ -34767,13 +34800,13 @@
         <v>694</v>
       </c>
       <c r="K577" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="L577" t="s">
         <v>652</v>
       </c>
       <c r="M577" t="s">
-        <v>3978</v>
+        <v>3977</v>
       </c>
       <c r="N577">
         <v>9</v>
@@ -34781,6 +34814,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E214" r:id="rId1" xr:uid="{7D0A5859-AA8A-426A-9F6F-63E4566705A0}"/>
+    <hyperlink ref="E570" r:id="rId2" xr:uid="{E8285F3D-3975-4DC4-9C85-03DF2D25252E}"/>
+    <hyperlink ref="E571" r:id="rId3" xr:uid="{CDB6FF41-350E-4641-8329-6083E853487F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>